--- a/non-linear 3-degree regression models experimental results/e4000_MountainCar__compare.xlsx
+++ b/non-linear 3-degree regression models experimental results/e4000_MountainCar__compare.xlsx
@@ -652,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>193.0112838745117</v>
+        <v>248.438835144043</v>
       </c>
       <c r="O2">
-        <v>193.0112838745117</v>
+        <v>248.438835144043</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -696,13 +696,13 @@
         <v>4</v>
       </c>
       <c r="M3">
-        <v>13.98086547851562</v>
+        <v>10.93864440917969</v>
       </c>
       <c r="N3">
-        <v>2.001762390136719</v>
+        <v>1.998424530029297</v>
       </c>
       <c r="O3">
-        <v>15.98262786865234</v>
+        <v>12.93706893920898</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>74.99217987060547</v>
+        <v>83.36114883422852</v>
       </c>
       <c r="O4">
-        <v>74.99217987060547</v>
+        <v>83.36114883422852</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -784,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="M5">
-        <v>10.68878173828125</v>
+        <v>13.07201385498047</v>
       </c>
       <c r="N5">
-        <v>11.00587844848633</v>
+        <v>9.03010368347168</v>
       </c>
       <c r="O5">
-        <v>21.69466018676758</v>
+        <v>22.10211753845215</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>36.99660301208496</v>
+        <v>51.64957046508789</v>
       </c>
       <c r="O6">
-        <v>36.99660301208496</v>
+        <v>51.64957046508789</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -872,13 +872,13 @@
         <v>4</v>
       </c>
       <c r="M7">
-        <v>12.64500617980957</v>
+        <v>16.95585250854492</v>
       </c>
       <c r="N7">
-        <v>24.65653419494629</v>
+        <v>36.60964965820312</v>
       </c>
       <c r="O7">
-        <v>37.30154037475586</v>
+        <v>53.56550216674805</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>23.71978759765625</v>
+        <v>24.12033081054688</v>
       </c>
       <c r="O8">
-        <v>23.71978759765625</v>
+        <v>24.12033081054688</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -960,13 +960,13 @@
         <v>4</v>
       </c>
       <c r="M9">
-        <v>14.95194435119629</v>
+        <v>13.0915641784668</v>
       </c>
       <c r="N9">
-        <v>37.99295425415039</v>
+        <v>31.46600723266602</v>
       </c>
       <c r="O9">
-        <v>52.94489860534668</v>
+        <v>44.55757141113281</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1004,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>37.43219375610352</v>
+        <v>34.32583808898926</v>
       </c>
       <c r="O10">
-        <v>37.43219375610352</v>
+        <v>34.32583808898926</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1048,13 +1048,13 @@
         <v>4</v>
       </c>
       <c r="M11">
-        <v>11.94930076599121</v>
+        <v>18.8446044921875</v>
       </c>
       <c r="N11">
-        <v>20.43843269348145</v>
+        <v>30.87019920349121</v>
       </c>
       <c r="O11">
-        <v>32.38773345947266</v>
+        <v>49.71480369567871</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1092,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>207.7770233154297</v>
+        <v>224.4596481323242</v>
       </c>
       <c r="O12">
-        <v>207.7770233154297</v>
+        <v>224.4596481323242</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1136,13 +1136,13 @@
         <v>4</v>
       </c>
       <c r="M13">
-        <v>11.83152198791504</v>
+        <v>10.65611839294434</v>
       </c>
       <c r="N13">
-        <v>3.017663955688477</v>
+        <v>4.269599914550781</v>
       </c>
       <c r="O13">
-        <v>14.84918594360352</v>
+        <v>14.92571830749512</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>175.6191253662109</v>
+        <v>188.8811588287354</v>
       </c>
       <c r="O14">
-        <v>175.6191253662109</v>
+        <v>188.8811588287354</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1224,13 +1224,13 @@
         <v>4</v>
       </c>
       <c r="M15">
-        <v>11.99793815612793</v>
+        <v>17.99654960632324</v>
       </c>
       <c r="N15">
-        <v>7.999181747436523</v>
+        <v>11.00349426269531</v>
       </c>
       <c r="O15">
-        <v>19.99711990356445</v>
+        <v>29.00004386901855</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>182.7676296234131</v>
+        <v>201.0202407836914</v>
       </c>
       <c r="O16">
-        <v>182.7676296234131</v>
+        <v>201.0202407836914</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1312,13 +1312,13 @@
         <v>4</v>
       </c>
       <c r="M17">
-        <v>15.00368118286133</v>
+        <v>17.31681823730469</v>
       </c>
       <c r="N17">
-        <v>9.99903678894043</v>
+        <v>8.993625640869141</v>
       </c>
       <c r="O17">
-        <v>25.00271797180176</v>
+        <v>26.31044387817383</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>174.6633052825928</v>
+        <v>178.4412860870361</v>
       </c>
       <c r="O18">
-        <v>174.6633052825928</v>
+        <v>178.4412860870361</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1400,13 +1400,13 @@
         <v>4</v>
       </c>
       <c r="M19">
-        <v>12.97283172607422</v>
+        <v>19.02532577514648</v>
       </c>
       <c r="N19">
-        <v>13.00048828125</v>
+        <v>20.25389671325684</v>
       </c>
       <c r="O19">
-        <v>25.97332000732422</v>
+        <v>39.27922248840332</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>165.8592224121094</v>
+        <v>182.6083660125732</v>
       </c>
       <c r="O20">
-        <v>165.8592224121094</v>
+        <v>182.6083660125732</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1488,13 +1488,13 @@
         <v>4</v>
       </c>
       <c r="M21">
-        <v>14.56618309020996</v>
+        <v>16.13497734069824</v>
       </c>
       <c r="N21">
-        <v>17.01879501342773</v>
+        <v>20.18141746520996</v>
       </c>
       <c r="O21">
-        <v>31.5849781036377</v>
+        <v>36.3163948059082</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>197.6418495178223</v>
+        <v>207.4382305145264</v>
       </c>
       <c r="O22">
-        <v>197.6418495178223</v>
+        <v>207.4382305145264</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1576,13 +1576,13 @@
         <v>4</v>
       </c>
       <c r="M23">
-        <v>14.00208473205566</v>
+        <v>15.11144638061523</v>
       </c>
       <c r="N23">
-        <v>3.998756408691406</v>
+        <v>3.649473190307617</v>
       </c>
       <c r="O23">
-        <v>18.00084114074707</v>
+        <v>18.76091957092285</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1620,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>176.9373416900635</v>
+        <v>192.7099227905273</v>
       </c>
       <c r="O24">
-        <v>176.9373416900635</v>
+        <v>192.7099227905273</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1664,13 +1664,13 @@
         <v>4</v>
       </c>
       <c r="M25">
-        <v>13.99946212768555</v>
+        <v>16.01266860961914</v>
       </c>
       <c r="N25">
-        <v>9.024858474731445</v>
+        <v>13.5190486907959</v>
       </c>
       <c r="O25">
-        <v>23.02432060241699</v>
+        <v>29.53171730041504</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1708,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>180.7358264923096</v>
+        <v>200.2828121185303</v>
       </c>
       <c r="O26">
-        <v>180.7358264923096</v>
+        <v>200.2828121185303</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1752,13 +1752,13 @@
         <v>4</v>
       </c>
       <c r="M27">
-        <v>12.99858093261719</v>
+        <v>17.00186729431152</v>
       </c>
       <c r="N27">
-        <v>12.9997730255127</v>
+        <v>9.996414184570312</v>
       </c>
       <c r="O27">
-        <v>25.99835395812988</v>
+        <v>26.99828147888184</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1796,10 +1796,10 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>169.9404716491699</v>
+        <v>178.6324977874756</v>
       </c>
       <c r="O28">
-        <v>169.9404716491699</v>
+        <v>178.6324977874756</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1840,13 +1840,13 @@
         <v>4</v>
       </c>
       <c r="M29">
-        <v>16.08777046203613</v>
+        <v>17.64917373657227</v>
       </c>
       <c r="N29">
-        <v>11.99984550476074</v>
+        <v>16.42799377441406</v>
       </c>
       <c r="O29">
-        <v>28.08761596679688</v>
+        <v>34.07716751098633</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1884,10 +1884,10 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>16.1285400390625</v>
+        <v>18.60833168029785</v>
       </c>
       <c r="O30">
-        <v>16.1285400390625</v>
+        <v>18.60833168029785</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1928,13 +1928,13 @@
         <v>2</v>
       </c>
       <c r="M31">
-        <v>12.06183433532715</v>
+        <v>12.65645027160645</v>
       </c>
       <c r="N31">
-        <v>10.87522506713867</v>
+        <v>11.97957992553711</v>
       </c>
       <c r="O31">
-        <v>22.93705940246582</v>
+        <v>24.63603019714355</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1978,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>217.4656391143799</v>
+        <v>242.5196170806885</v>
       </c>
       <c r="O32">
-        <v>217.4656391143799</v>
+        <v>242.5196170806885</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2022,13 +2022,13 @@
         <v>4</v>
       </c>
       <c r="M33">
-        <v>11.34133338928223</v>
+        <v>11.00468635559082</v>
       </c>
       <c r="N33">
         <v>1.999855041503906</v>
       </c>
       <c r="O33">
-        <v>13.34118843078613</v>
+        <v>13.00454139709473</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2066,10 +2066,10 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>74.01227951049805</v>
+        <v>74.75638389587402</v>
       </c>
       <c r="O34">
-        <v>74.01227951049805</v>
+        <v>74.75638389587402</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2110,13 +2110,13 @@
         <v>4</v>
       </c>
       <c r="M35">
-        <v>10.45560836791992</v>
+        <v>11.4448070526123</v>
       </c>
       <c r="N35">
-        <v>6.779670715332031</v>
+        <v>8.304595947265625</v>
       </c>
       <c r="O35">
-        <v>17.23527908325195</v>
+        <v>19.74940299987793</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2154,10 +2154,10 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>32.08374977111816</v>
+        <v>35.17699241638184</v>
       </c>
       <c r="O36">
-        <v>32.08374977111816</v>
+        <v>35.17699241638184</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2198,13 +2198,13 @@
         <v>4</v>
       </c>
       <c r="M37">
-        <v>17.00186729431152</v>
+        <v>23.37169647216797</v>
       </c>
       <c r="N37">
-        <v>29.51884269714355</v>
+        <v>39.03961181640625</v>
       </c>
       <c r="O37">
-        <v>46.52070999145508</v>
+        <v>62.41130828857422</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2242,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>25.40898323059082</v>
+        <v>25.18224716186523</v>
       </c>
       <c r="O38">
-        <v>25.40898323059082</v>
+        <v>25.18224716186523</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2286,13 +2286,13 @@
         <v>4</v>
       </c>
       <c r="M39">
-        <v>11.96479797363281</v>
+        <v>13.00406455993652</v>
       </c>
       <c r="N39">
-        <v>31.58187866210938</v>
+        <v>31.95381164550781</v>
       </c>
       <c r="O39">
-        <v>43.54667663574219</v>
+        <v>44.95787620544434</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2330,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>37.05239295959473</v>
+        <v>49.41439628601074</v>
       </c>
       <c r="O40">
-        <v>37.05239295959473</v>
+        <v>49.41439628601074</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2374,13 +2374,13 @@
         <v>2</v>
       </c>
       <c r="M41">
-        <v>15.01965522766113</v>
+        <v>17.61603355407715</v>
       </c>
       <c r="N41">
-        <v>1.991033554077148</v>
+        <v>2.000570297241211</v>
       </c>
       <c r="O41">
-        <v>17.01068878173828</v>
+        <v>19.61660385131836</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>195.819616317749</v>
+        <v>225.0728607177734</v>
       </c>
       <c r="O42">
-        <v>195.819616317749</v>
+        <v>225.0728607177734</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2462,13 +2462,13 @@
         <v>2</v>
       </c>
       <c r="M43">
-        <v>12.08853721618652</v>
+        <v>11.08837127685547</v>
       </c>
       <c r="N43">
-        <v>2.000331878662109</v>
+        <v>0.9968280792236328</v>
       </c>
       <c r="O43">
-        <v>14.08886909484863</v>
+        <v>12.0851993560791</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2506,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>75.3486156463623</v>
+        <v>81.14504814147949</v>
       </c>
       <c r="O44">
-        <v>75.3486156463623</v>
+        <v>81.14504814147949</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2550,13 +2550,13 @@
         <v>2</v>
       </c>
       <c r="M45">
-        <v>11.1386775970459</v>
+        <v>10.41603088378906</v>
       </c>
       <c r="N45">
-        <v>4.999637603759766</v>
+        <v>5.99980354309082</v>
       </c>
       <c r="O45">
-        <v>16.13831520080566</v>
+        <v>16.41583442687988</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2594,10 +2594,10 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>31.83197975158691</v>
+        <v>50.37856101989746</v>
       </c>
       <c r="O46">
-        <v>31.83197975158691</v>
+        <v>50.37856101989746</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2638,13 +2638,13 @@
         <v>4</v>
       </c>
       <c r="M47">
-        <v>14.00160789489746</v>
+        <v>20.15423774719238</v>
       </c>
       <c r="N47">
-        <v>30.22146224975586</v>
+        <v>35.97211837768555</v>
       </c>
       <c r="O47">
-        <v>44.22307014465332</v>
+        <v>56.12635612487793</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2682,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>25.32815933227539</v>
+        <v>27.13274955749512</v>
       </c>
       <c r="O48">
-        <v>25.32815933227539</v>
+        <v>27.13274955749512</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -2726,13 +2726,13 @@
         <v>4</v>
       </c>
       <c r="M49">
-        <v>12.78042793273926</v>
+        <v>12.06541061401367</v>
       </c>
       <c r="N49">
-        <v>31.99100494384766</v>
+        <v>29.2811393737793</v>
       </c>
       <c r="O49">
-        <v>44.77143287658691</v>
+        <v>41.34654998779297</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -2770,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>18.09549331665039</v>
+        <v>24.90472793579102</v>
       </c>
       <c r="O50">
-        <v>18.09549331665039</v>
+        <v>24.90472793579102</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -2814,13 +2814,13 @@
         <v>1</v>
       </c>
       <c r="M51">
-        <v>15.14077186584473</v>
+        <v>20.43056488037109</v>
       </c>
       <c r="N51">
-        <v>1.008033752441406</v>
+        <v>0.9822845458984375</v>
       </c>
       <c r="O51">
-        <v>16.14880561828613</v>
+        <v>21.41284942626953</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -2858,10 +2858,10 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>147.1297740936279</v>
+        <v>163.2893085479736</v>
       </c>
       <c r="O52">
-        <v>147.1297740936279</v>
+        <v>163.2893085479736</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -2902,13 +2902,13 @@
         <v>2</v>
       </c>
       <c r="M53">
-        <v>11.97075843811035</v>
+        <v>16.9978141784668</v>
       </c>
       <c r="N53">
-        <v>3.000974655151367</v>
+        <v>3.000736236572266</v>
       </c>
       <c r="O53">
-        <v>14.97173309326172</v>
+        <v>19.99855041503906</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>40.8012866973877</v>
+        <v>38.63525390625</v>
       </c>
       <c r="O54">
-        <v>40.8012866973877</v>
+        <v>38.63525390625</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -2996,13 +2996,13 @@
         <v>2</v>
       </c>
       <c r="M55">
-        <v>12.63666152954102</v>
+        <v>11.0020637512207</v>
       </c>
       <c r="N55">
-        <v>6.856203079223633</v>
+        <v>5.979537963867188</v>
       </c>
       <c r="O55">
-        <v>19.49286460876465</v>
+        <v>16.98160171508789</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>23.14329147338867</v>
+        <v>23.13542366027832</v>
       </c>
       <c r="O56">
-        <v>23.14329147338867</v>
+        <v>23.13542366027832</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3084,13 +3084,13 @@
         <v>2</v>
       </c>
       <c r="M57">
-        <v>11.55662536621094</v>
+        <v>13.5796070098877</v>
       </c>
       <c r="N57">
-        <v>7.999181747436523</v>
+        <v>12.07900047302246</v>
       </c>
       <c r="O57">
-        <v>19.55580711364746</v>
+        <v>25.65860748291016</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>23.06151390075684</v>
+        <v>28.00703048706055</v>
       </c>
       <c r="O58">
-        <v>23.06151390075684</v>
+        <v>28.00703048706055</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3172,13 +3172,13 @@
         <v>1</v>
       </c>
       <c r="M59">
-        <v>13.07964324951172</v>
+        <v>13.04149627685547</v>
       </c>
       <c r="N59">
-        <v>0.9970664978027344</v>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>14.07670974731445</v>
+        <v>13.04149627685547</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3216,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>20.73907852172852</v>
+        <v>19.95229721069336</v>
       </c>
       <c r="O60">
-        <v>20.73907852172852</v>
+        <v>19.95229721069336</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3260,13 +3260,13 @@
         <v>2</v>
       </c>
       <c r="M61">
-        <v>11.1696720123291</v>
+        <v>10.99920272827148</v>
       </c>
       <c r="N61">
-        <v>1.001358032226562</v>
+        <v>2.004861831665039</v>
       </c>
       <c r="O61">
-        <v>12.17103004455566</v>
+        <v>13.00406455993652</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3304,10 +3304,10 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>157.2811603546143</v>
+        <v>169.2016124725342</v>
       </c>
       <c r="O62">
-        <v>157.2811603546143</v>
+        <v>169.2016124725342</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3348,13 +3348,13 @@
         <v>2</v>
       </c>
       <c r="M63">
-        <v>10.36858558654785</v>
+        <v>13.25345039367676</v>
       </c>
       <c r="N63">
-        <v>1.999855041503906</v>
+        <v>2.001762390136719</v>
       </c>
       <c r="O63">
-        <v>12.36844062805176</v>
+        <v>15.25521278381348</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>45.88627815246582</v>
+        <v>51.50389671325684</v>
       </c>
       <c r="O64">
-        <v>45.88627815246582</v>
+        <v>51.50389671325684</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3442,13 +3442,13 @@
         <v>2</v>
       </c>
       <c r="M65">
-        <v>11.00540161132812</v>
+        <v>11.99722290039062</v>
       </c>
       <c r="N65">
-        <v>7.02977180480957</v>
+        <v>7.1258544921875</v>
       </c>
       <c r="O65">
-        <v>18.0351734161377</v>
+        <v>19.12307739257812</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>24.70946311950684</v>
+        <v>23.39029312133789</v>
       </c>
       <c r="O66">
-        <v>24.70946311950684</v>
+        <v>23.39029312133789</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3530,13 +3530,13 @@
         <v>2</v>
       </c>
       <c r="M67">
-        <v>12.00079917907715</v>
+        <v>16.00050926208496</v>
       </c>
       <c r="N67">
-        <v>7.000446319580078</v>
+        <v>11.0020637512207</v>
       </c>
       <c r="O67">
-        <v>19.00124549865723</v>
+        <v>27.00257301330566</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3574,10 +3574,10 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>23.00667762756348</v>
+        <v>27.52161026000977</v>
       </c>
       <c r="O68">
-        <v>23.00667762756348</v>
+        <v>27.52161026000977</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3618,13 +3618,13 @@
         <v>2</v>
       </c>
       <c r="M69">
-        <v>13.61203193664551</v>
+        <v>14.66655731201172</v>
       </c>
       <c r="N69">
-        <v>10.00022888183594</v>
+        <v>8.934736251831055</v>
       </c>
       <c r="O69">
-        <v>23.61226081848145</v>
+        <v>23.60129356384277</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -3662,10 +3662,10 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>19.54841613769531</v>
+        <v>20.3406810760498</v>
       </c>
       <c r="O70">
-        <v>19.54841613769531</v>
+        <v>20.3406810760498</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -3706,13 +3706,13 @@
         <v>3</v>
       </c>
       <c r="M71">
-        <v>12.05253601074219</v>
+        <v>13.25368881225586</v>
       </c>
       <c r="N71">
-        <v>25.75850486755371</v>
+        <v>28.89132499694824</v>
       </c>
       <c r="O71">
-        <v>37.8110408782959</v>
+        <v>42.1450138092041</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>181.3466548919678</v>
+        <v>202.045202255249</v>
       </c>
       <c r="O72">
-        <v>181.3466548919678</v>
+        <v>202.045202255249</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -3794,13 +3794,13 @@
         <v>3</v>
       </c>
       <c r="M73">
-        <v>12.23611831665039</v>
+        <v>17.77172088623047</v>
       </c>
       <c r="N73">
-        <v>3.999710083007812</v>
+        <v>4.99725341796875</v>
       </c>
       <c r="O73">
-        <v>16.2358283996582</v>
+        <v>22.76897430419922</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -3838,10 +3838,10 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>172.2307205200195</v>
+        <v>178.9968013763428</v>
       </c>
       <c r="O74">
-        <v>172.2307205200195</v>
+        <v>178.9968013763428</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -3882,13 +3882,13 @@
         <v>3</v>
       </c>
       <c r="M75">
-        <v>14.00566101074219</v>
+        <v>17.14754104614258</v>
       </c>
       <c r="N75">
-        <v>5.994558334350586</v>
+        <v>9.001731872558594</v>
       </c>
       <c r="O75">
-        <v>20.00021934509277</v>
+        <v>26.14927291870117</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -3926,10 +3926,10 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>164.4814014434814</v>
+        <v>177.086353302002</v>
       </c>
       <c r="O76">
-        <v>164.4814014434814</v>
+        <v>177.086353302002</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -3970,13 +3970,13 @@
         <v>3</v>
       </c>
       <c r="M77">
-        <v>14.00089263916016</v>
+        <v>16.99948310852051</v>
       </c>
       <c r="N77">
-        <v>9.004116058349609</v>
+        <v>11.00015640258789</v>
       </c>
       <c r="O77">
-        <v>23.00500869750977</v>
+        <v>27.9996395111084</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4014,10 +4014,10 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>157.9110622406006</v>
+        <v>164.7524833679199</v>
       </c>
       <c r="O78">
-        <v>157.9110622406006</v>
+        <v>164.7524833679199</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4058,13 +4058,13 @@
         <v>3</v>
       </c>
       <c r="M79">
-        <v>13.1833553314209</v>
+        <v>19.83928680419922</v>
       </c>
       <c r="N79">
-        <v>9.999513626098633</v>
+        <v>14.81413841247559</v>
       </c>
       <c r="O79">
-        <v>23.18286895751953</v>
+        <v>34.6534252166748</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4108,10 +4108,10 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>159.9142551422119</v>
+        <v>167.8519248962402</v>
       </c>
       <c r="O80">
-        <v>159.9142551422119</v>
+        <v>167.8519248962402</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4152,13 +4152,13 @@
         <v>2</v>
       </c>
       <c r="M81">
-        <v>13.99612426757812</v>
+        <v>16.45207405090332</v>
       </c>
       <c r="N81">
-        <v>0.9987354278564453</v>
+        <v>3.000259399414062</v>
       </c>
       <c r="O81">
-        <v>14.99485969543457</v>
+        <v>19.45233345031738</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4202,10 +4202,10 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>204.5176029205322</v>
+        <v>229.7940254211426</v>
       </c>
       <c r="O82">
-        <v>204.5176029205322</v>
+        <v>229.7940254211426</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4246,13 +4246,13 @@
         <v>2</v>
       </c>
       <c r="M83">
-        <v>14.00089263916016</v>
+        <v>11.51227951049805</v>
       </c>
       <c r="N83">
-        <v>0.9987354278564453</v>
+        <v>1.997947692871094</v>
       </c>
       <c r="O83">
-        <v>14.9996280670166</v>
+        <v>13.51022720336914</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4290,10 +4290,10 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>74.15390014648438</v>
+        <v>76.66420936584473</v>
       </c>
       <c r="O84">
-        <v>74.15390014648438</v>
+        <v>76.66420936584473</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4334,13 +4334,13 @@
         <v>2</v>
       </c>
       <c r="M85">
-        <v>12.01224327087402</v>
+        <v>9.981870651245117</v>
       </c>
       <c r="N85">
-        <v>3.98564338684082</v>
+        <v>5.000114440917969</v>
       </c>
       <c r="O85">
-        <v>15.99788665771484</v>
+        <v>14.98198509216309</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4378,10 +4378,10 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>34.95430946350098</v>
+        <v>32.76824951171875</v>
       </c>
       <c r="O86">
-        <v>34.95430946350098</v>
+        <v>32.76824951171875</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4422,13 +4422,13 @@
         <v>4</v>
       </c>
       <c r="M87">
-        <v>13.03434371948242</v>
+        <v>20.36142349243164</v>
       </c>
       <c r="N87">
-        <v>30.31539916992188</v>
+        <v>39.95704650878906</v>
       </c>
       <c r="O87">
-        <v>43.3497428894043</v>
+        <v>60.3184700012207</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4466,10 +4466,10 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>24.52993392944336</v>
+        <v>27.82678604125977</v>
       </c>
       <c r="O88">
-        <v>24.52993392944336</v>
+        <v>27.82678604125977</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4510,13 +4510,13 @@
         <v>4</v>
       </c>
       <c r="M89">
-        <v>12.07113265991211</v>
+        <v>11.99865341186523</v>
       </c>
       <c r="N89">
-        <v>30.9607982635498</v>
+        <v>31.40521049499512</v>
       </c>
       <c r="O89">
-        <v>43.03193092346191</v>
+        <v>43.40386390686035</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>28.02681922912598</v>
+        <v>40.97700119018555</v>
       </c>
       <c r="O90">
-        <v>28.02681922912598</v>
+        <v>40.97700119018555</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -4598,13 +4598,13 @@
         <v>2</v>
       </c>
       <c r="M91">
-        <v>15.00201225280762</v>
+        <v>16.1597728729248</v>
       </c>
       <c r="N91">
-        <v>7.968902587890625</v>
+        <v>13.66043090820312</v>
       </c>
       <c r="O91">
-        <v>22.97091484069824</v>
+        <v>29.82020378112793</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -4642,10 +4642,10 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>143.6131000518799</v>
+        <v>146.3985443115234</v>
       </c>
       <c r="O92">
-        <v>143.6131000518799</v>
+        <v>146.3985443115234</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -4686,13 +4686,13 @@
         <v>3</v>
       </c>
       <c r="M93">
-        <v>13.00454139709473</v>
+        <v>18.05424690246582</v>
       </c>
       <c r="N93">
-        <v>4.001140594482422</v>
+        <v>2.999305725097656</v>
       </c>
       <c r="O93">
-        <v>17.00568199157715</v>
+        <v>21.05355262756348</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -4736,10 +4736,10 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>41.83173179626465</v>
+        <v>44.44432258605957</v>
       </c>
       <c r="O94">
-        <v>41.83173179626465</v>
+        <v>44.44432258605957</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -4780,13 +4780,13 @@
         <v>3</v>
       </c>
       <c r="M95">
-        <v>11.00492477416992</v>
+        <v>11.04593276977539</v>
       </c>
       <c r="N95">
-        <v>9.723663330078125</v>
+        <v>8.978128433227539</v>
       </c>
       <c r="O95">
-        <v>20.72858810424805</v>
+        <v>20.02406120300293</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -4824,10 +4824,10 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>20.99919319152832</v>
+        <v>25.27189254760742</v>
       </c>
       <c r="O96">
-        <v>20.99919319152832</v>
+        <v>25.27189254760742</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -4868,13 +4868,13 @@
         <v>3</v>
       </c>
       <c r="M97">
-        <v>11.89923286437988</v>
+        <v>17.77553558349609</v>
       </c>
       <c r="N97">
-        <v>11.75498962402344</v>
+        <v>16.33977890014648</v>
       </c>
       <c r="O97">
-        <v>23.65422248840332</v>
+        <v>34.11531448364258</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -4912,10 +4912,10 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>24.87969398498535</v>
+        <v>23.69928359985352</v>
       </c>
       <c r="O98">
-        <v>24.87969398498535</v>
+        <v>23.69928359985352</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -4956,13 +4956,13 @@
         <v>2</v>
       </c>
       <c r="M99">
-        <v>16.96991920471191</v>
+        <v>12.02964782714844</v>
       </c>
       <c r="N99">
-        <v>4.999399185180664</v>
+        <v>2.969741821289062</v>
       </c>
       <c r="O99">
-        <v>21.96931838989258</v>
+        <v>14.9993896484375</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -5000,10 +5000,10 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>18.15342903137207</v>
+        <v>15.07973670959473</v>
       </c>
       <c r="O100">
-        <v>18.15342903137207</v>
+        <v>15.07973670959473</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -5044,13 +5044,13 @@
         <v>2</v>
       </c>
       <c r="M101">
-        <v>12.26019859313965</v>
+        <v>12.30955123901367</v>
       </c>
       <c r="N101">
-        <v>13.0620002746582</v>
+        <v>19.84786987304688</v>
       </c>
       <c r="O101">
-        <v>25.32219886779785</v>
+        <v>32.15742111206055</v>
       </c>
     </row>
   </sheetData>
@@ -5157,10 +5157,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>193.0112838745117</v>
+        <v>248.438835144043</v>
       </c>
       <c r="O2">
-        <v>193.0112838745117</v>
+        <v>248.438835144043</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -5204,10 +5204,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>193.0112838745117</v>
+        <v>248.438835144043</v>
       </c>
       <c r="O3">
-        <v>193.0112838745117</v>
+        <v>248.438835144043</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5248,13 +5248,13 @@
         <v>4</v>
       </c>
       <c r="M4">
-        <v>13.98086547851562</v>
+        <v>10.93864440917969</v>
       </c>
       <c r="N4">
-        <v>2.001762390136719</v>
+        <v>1.998424530029297</v>
       </c>
       <c r="O4">
-        <v>15.98262786865234</v>
+        <v>12.93706893920898</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -5295,13 +5295,13 @@
         <v>4</v>
       </c>
       <c r="M5">
-        <v>13.98086547851562</v>
+        <v>10.93864440917969</v>
       </c>
       <c r="N5">
-        <v>2.001762390136719</v>
+        <v>1.998424530029297</v>
       </c>
       <c r="O5">
-        <v>15.98262786865234</v>
+        <v>12.93706893920898</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -5342,13 +5342,13 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>13.98086547851562</v>
+        <v>10.93864440917969</v>
       </c>
       <c r="N6">
-        <v>2.001762390136719</v>
+        <v>1.998424530029297</v>
       </c>
       <c r="O6">
-        <v>15.98262786865234</v>
+        <v>12.93706893920898</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -5389,13 +5389,13 @@
         <v>4</v>
       </c>
       <c r="M7">
-        <v>13.98086547851562</v>
+        <v>10.93864440917969</v>
       </c>
       <c r="N7">
-        <v>2.001762390136719</v>
+        <v>1.998424530029297</v>
       </c>
       <c r="O7">
-        <v>15.98262786865234</v>
+        <v>12.93706893920898</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -5436,13 +5436,13 @@
         <v>4</v>
       </c>
       <c r="M8">
-        <v>10.68878173828125</v>
+        <v>13.07201385498047</v>
       </c>
       <c r="N8">
-        <v>11.00587844848633</v>
+        <v>9.03010368347168</v>
       </c>
       <c r="O8">
-        <v>21.69466018676758</v>
+        <v>22.10211753845215</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -5483,13 +5483,13 @@
         <v>4</v>
       </c>
       <c r="M9">
-        <v>10.68878173828125</v>
+        <v>13.07201385498047</v>
       </c>
       <c r="N9">
-        <v>11.00587844848633</v>
+        <v>9.03010368347168</v>
       </c>
       <c r="O9">
-        <v>21.69466018676758</v>
+        <v>22.10211753845215</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -5530,13 +5530,13 @@
         <v>4</v>
       </c>
       <c r="M10">
-        <v>10.68878173828125</v>
+        <v>13.07201385498047</v>
       </c>
       <c r="N10">
-        <v>11.00587844848633</v>
+        <v>9.03010368347168</v>
       </c>
       <c r="O10">
-        <v>21.69466018676758</v>
+        <v>22.10211753845215</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -5577,13 +5577,13 @@
         <v>4</v>
       </c>
       <c r="M11">
-        <v>10.68878173828125</v>
+        <v>13.07201385498047</v>
       </c>
       <c r="N11">
-        <v>11.00587844848633</v>
+        <v>9.03010368347168</v>
       </c>
       <c r="O11">
-        <v>21.69466018676758</v>
+        <v>22.10211753845215</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -5624,13 +5624,13 @@
         <v>4</v>
       </c>
       <c r="M12">
-        <v>12.64500617980957</v>
+        <v>16.95585250854492</v>
       </c>
       <c r="N12">
-        <v>24.65653419494629</v>
+        <v>36.60964965820312</v>
       </c>
       <c r="O12">
-        <v>37.30154037475586</v>
+        <v>53.56550216674805</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -5671,13 +5671,13 @@
         <v>4</v>
       </c>
       <c r="M13">
-        <v>12.64500617980957</v>
+        <v>16.95585250854492</v>
       </c>
       <c r="N13">
-        <v>24.65653419494629</v>
+        <v>36.60964965820312</v>
       </c>
       <c r="O13">
-        <v>37.30154037475586</v>
+        <v>53.56550216674805</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -5718,13 +5718,13 @@
         <v>4</v>
       </c>
       <c r="M14">
-        <v>12.64500617980957</v>
+        <v>16.95585250854492</v>
       </c>
       <c r="N14">
-        <v>24.65653419494629</v>
+        <v>36.60964965820312</v>
       </c>
       <c r="O14">
-        <v>37.30154037475586</v>
+        <v>53.56550216674805</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -5765,13 +5765,13 @@
         <v>4</v>
       </c>
       <c r="M15">
-        <v>12.64500617980957</v>
+        <v>16.95585250854492</v>
       </c>
       <c r="N15">
-        <v>24.65653419494629</v>
+        <v>36.60964965820312</v>
       </c>
       <c r="O15">
-        <v>37.30154037475586</v>
+        <v>53.56550216674805</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -5812,13 +5812,13 @@
         <v>4</v>
       </c>
       <c r="M16">
-        <v>14.95194435119629</v>
+        <v>13.0915641784668</v>
       </c>
       <c r="N16">
-        <v>37.99295425415039</v>
+        <v>31.46600723266602</v>
       </c>
       <c r="O16">
-        <v>52.94489860534668</v>
+        <v>44.55757141113281</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -5859,13 +5859,13 @@
         <v>4</v>
       </c>
       <c r="M17">
-        <v>14.95194435119629</v>
+        <v>13.0915641784668</v>
       </c>
       <c r="N17">
-        <v>37.99295425415039</v>
+        <v>31.46600723266602</v>
       </c>
       <c r="O17">
-        <v>52.94489860534668</v>
+        <v>44.55757141113281</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -5906,13 +5906,13 @@
         <v>4</v>
       </c>
       <c r="M18">
-        <v>14.95194435119629</v>
+        <v>13.0915641784668</v>
       </c>
       <c r="N18">
-        <v>37.99295425415039</v>
+        <v>31.46600723266602</v>
       </c>
       <c r="O18">
-        <v>52.94489860534668</v>
+        <v>44.55757141113281</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -5953,13 +5953,13 @@
         <v>4</v>
       </c>
       <c r="M19">
-        <v>14.95194435119629</v>
+        <v>13.0915641784668</v>
       </c>
       <c r="N19">
-        <v>37.99295425415039</v>
+        <v>31.46600723266602</v>
       </c>
       <c r="O19">
-        <v>52.94489860534668</v>
+        <v>44.55757141113281</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -6000,13 +6000,13 @@
         <v>4</v>
       </c>
       <c r="M20">
-        <v>11.94930076599121</v>
+        <v>18.8446044921875</v>
       </c>
       <c r="N20">
-        <v>20.43843269348145</v>
+        <v>30.87019920349121</v>
       </c>
       <c r="O20">
-        <v>32.38773345947266</v>
+        <v>49.71480369567871</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -6047,13 +6047,13 @@
         <v>4</v>
       </c>
       <c r="M21">
-        <v>11.94930076599121</v>
+        <v>18.8446044921875</v>
       </c>
       <c r="N21">
-        <v>20.43843269348145</v>
+        <v>30.87019920349121</v>
       </c>
       <c r="O21">
-        <v>32.38773345947266</v>
+        <v>49.71480369567871</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -6094,13 +6094,13 @@
         <v>4</v>
       </c>
       <c r="M22">
-        <v>11.94930076599121</v>
+        <v>18.8446044921875</v>
       </c>
       <c r="N22">
-        <v>20.43843269348145</v>
+        <v>30.87019920349121</v>
       </c>
       <c r="O22">
-        <v>32.38773345947266</v>
+        <v>49.71480369567871</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -6141,13 +6141,13 @@
         <v>4</v>
       </c>
       <c r="M23">
-        <v>11.94930076599121</v>
+        <v>18.8446044921875</v>
       </c>
       <c r="N23">
-        <v>20.43843269348145</v>
+        <v>30.87019920349121</v>
       </c>
       <c r="O23">
-        <v>32.38773345947266</v>
+        <v>49.71480369567871</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -6188,13 +6188,13 @@
         <v>4</v>
       </c>
       <c r="M24">
-        <v>11.83152198791504</v>
+        <v>10.65611839294434</v>
       </c>
       <c r="N24">
-        <v>3.017663955688477</v>
+        <v>4.269599914550781</v>
       </c>
       <c r="O24">
-        <v>14.84918594360352</v>
+        <v>14.92571830749512</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -6235,13 +6235,13 @@
         <v>4</v>
       </c>
       <c r="M25">
-        <v>11.83152198791504</v>
+        <v>10.65611839294434</v>
       </c>
       <c r="N25">
-        <v>3.017663955688477</v>
+        <v>4.269599914550781</v>
       </c>
       <c r="O25">
-        <v>14.84918594360352</v>
+        <v>14.92571830749512</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -6282,13 +6282,13 @@
         <v>4</v>
       </c>
       <c r="M26">
-        <v>11.83152198791504</v>
+        <v>10.65611839294434</v>
       </c>
       <c r="N26">
-        <v>3.017663955688477</v>
+        <v>4.269599914550781</v>
       </c>
       <c r="O26">
-        <v>14.84918594360352</v>
+        <v>14.92571830749512</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -6329,13 +6329,13 @@
         <v>4</v>
       </c>
       <c r="M27">
-        <v>11.83152198791504</v>
+        <v>10.65611839294434</v>
       </c>
       <c r="N27">
-        <v>3.017663955688477</v>
+        <v>4.269599914550781</v>
       </c>
       <c r="O27">
-        <v>14.84918594360352</v>
+        <v>14.92571830749512</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -6376,13 +6376,13 @@
         <v>4</v>
       </c>
       <c r="M28">
-        <v>11.99793815612793</v>
+        <v>17.99654960632324</v>
       </c>
       <c r="N28">
-        <v>7.999181747436523</v>
+        <v>11.00349426269531</v>
       </c>
       <c r="O28">
-        <v>19.99711990356445</v>
+        <v>29.00004386901855</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -6423,13 +6423,13 @@
         <v>4</v>
       </c>
       <c r="M29">
-        <v>11.99793815612793</v>
+        <v>17.99654960632324</v>
       </c>
       <c r="N29">
-        <v>7.999181747436523</v>
+        <v>11.00349426269531</v>
       </c>
       <c r="O29">
-        <v>19.99711990356445</v>
+        <v>29.00004386901855</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -6470,13 +6470,13 @@
         <v>4</v>
       </c>
       <c r="M30">
-        <v>11.99793815612793</v>
+        <v>17.99654960632324</v>
       </c>
       <c r="N30">
-        <v>7.999181747436523</v>
+        <v>11.00349426269531</v>
       </c>
       <c r="O30">
-        <v>19.99711990356445</v>
+        <v>29.00004386901855</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -6517,13 +6517,13 @@
         <v>4</v>
       </c>
       <c r="M31">
-        <v>11.99793815612793</v>
+        <v>17.99654960632324</v>
       </c>
       <c r="N31">
-        <v>7.999181747436523</v>
+        <v>11.00349426269531</v>
       </c>
       <c r="O31">
-        <v>19.99711990356445</v>
+        <v>29.00004386901855</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -6564,13 +6564,13 @@
         <v>4</v>
       </c>
       <c r="M32">
-        <v>15.00368118286133</v>
+        <v>17.31681823730469</v>
       </c>
       <c r="N32">
-        <v>9.99903678894043</v>
+        <v>8.993625640869141</v>
       </c>
       <c r="O32">
-        <v>25.00271797180176</v>
+        <v>26.31044387817383</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -6611,13 +6611,13 @@
         <v>4</v>
       </c>
       <c r="M33">
-        <v>15.00368118286133</v>
+        <v>17.31681823730469</v>
       </c>
       <c r="N33">
-        <v>9.99903678894043</v>
+        <v>8.993625640869141</v>
       </c>
       <c r="O33">
-        <v>25.00271797180176</v>
+        <v>26.31044387817383</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -6658,13 +6658,13 @@
         <v>4</v>
       </c>
       <c r="M34">
-        <v>15.00368118286133</v>
+        <v>17.31681823730469</v>
       </c>
       <c r="N34">
-        <v>9.99903678894043</v>
+        <v>8.993625640869141</v>
       </c>
       <c r="O34">
-        <v>25.00271797180176</v>
+        <v>26.31044387817383</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -6705,13 +6705,13 @@
         <v>4</v>
       </c>
       <c r="M35">
-        <v>15.00368118286133</v>
+        <v>17.31681823730469</v>
       </c>
       <c r="N35">
-        <v>9.99903678894043</v>
+        <v>8.993625640869141</v>
       </c>
       <c r="O35">
-        <v>25.00271797180176</v>
+        <v>26.31044387817383</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -6752,13 +6752,13 @@
         <v>4</v>
       </c>
       <c r="M36">
-        <v>12.97283172607422</v>
+        <v>19.02532577514648</v>
       </c>
       <c r="N36">
-        <v>13.00048828125</v>
+        <v>20.25389671325684</v>
       </c>
       <c r="O36">
-        <v>25.97332000732422</v>
+        <v>39.27922248840332</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -6799,13 +6799,13 @@
         <v>4</v>
       </c>
       <c r="M37">
-        <v>12.97283172607422</v>
+        <v>19.02532577514648</v>
       </c>
       <c r="N37">
-        <v>13.00048828125</v>
+        <v>20.25389671325684</v>
       </c>
       <c r="O37">
-        <v>25.97332000732422</v>
+        <v>39.27922248840332</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -6846,13 +6846,13 @@
         <v>4</v>
       </c>
       <c r="M38">
-        <v>12.97283172607422</v>
+        <v>19.02532577514648</v>
       </c>
       <c r="N38">
-        <v>13.00048828125</v>
+        <v>20.25389671325684</v>
       </c>
       <c r="O38">
-        <v>25.97332000732422</v>
+        <v>39.27922248840332</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -6893,13 +6893,13 @@
         <v>4</v>
       </c>
       <c r="M39">
-        <v>12.97283172607422</v>
+        <v>19.02532577514648</v>
       </c>
       <c r="N39">
-        <v>13.00048828125</v>
+        <v>20.25389671325684</v>
       </c>
       <c r="O39">
-        <v>25.97332000732422</v>
+        <v>39.27922248840332</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -6940,13 +6940,13 @@
         <v>4</v>
       </c>
       <c r="M40">
-        <v>14.56618309020996</v>
+        <v>16.13497734069824</v>
       </c>
       <c r="N40">
-        <v>17.01879501342773</v>
+        <v>20.18141746520996</v>
       </c>
       <c r="O40">
-        <v>31.5849781036377</v>
+        <v>36.3163948059082</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -6987,13 +6987,13 @@
         <v>4</v>
       </c>
       <c r="M41">
-        <v>14.56618309020996</v>
+        <v>16.13497734069824</v>
       </c>
       <c r="N41">
-        <v>17.01879501342773</v>
+        <v>20.18141746520996</v>
       </c>
       <c r="O41">
-        <v>31.5849781036377</v>
+        <v>36.3163948059082</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -7034,13 +7034,13 @@
         <v>4</v>
       </c>
       <c r="M42">
-        <v>14.56618309020996</v>
+        <v>16.13497734069824</v>
       </c>
       <c r="N42">
-        <v>17.01879501342773</v>
+        <v>20.18141746520996</v>
       </c>
       <c r="O42">
-        <v>31.5849781036377</v>
+        <v>36.3163948059082</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -7081,13 +7081,13 @@
         <v>4</v>
       </c>
       <c r="M43">
-        <v>14.56618309020996</v>
+        <v>16.13497734069824</v>
       </c>
       <c r="N43">
-        <v>17.01879501342773</v>
+        <v>20.18141746520996</v>
       </c>
       <c r="O43">
-        <v>31.5849781036377</v>
+        <v>36.3163948059082</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -7128,13 +7128,13 @@
         <v>4</v>
       </c>
       <c r="M44">
-        <v>14.00208473205566</v>
+        <v>15.11144638061523</v>
       </c>
       <c r="N44">
-        <v>3.998756408691406</v>
+        <v>3.649473190307617</v>
       </c>
       <c r="O44">
-        <v>18.00084114074707</v>
+        <v>18.76091957092285</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -7175,13 +7175,13 @@
         <v>4</v>
       </c>
       <c r="M45">
-        <v>14.00208473205566</v>
+        <v>15.11144638061523</v>
       </c>
       <c r="N45">
-        <v>3.998756408691406</v>
+        <v>3.649473190307617</v>
       </c>
       <c r="O45">
-        <v>18.00084114074707</v>
+        <v>18.76091957092285</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -7222,13 +7222,13 @@
         <v>4</v>
       </c>
       <c r="M46">
-        <v>14.00208473205566</v>
+        <v>15.11144638061523</v>
       </c>
       <c r="N46">
-        <v>3.998756408691406</v>
+        <v>3.649473190307617</v>
       </c>
       <c r="O46">
-        <v>18.00084114074707</v>
+        <v>18.76091957092285</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -7269,13 +7269,13 @@
         <v>4</v>
       </c>
       <c r="M47">
-        <v>14.00208473205566</v>
+        <v>15.11144638061523</v>
       </c>
       <c r="N47">
-        <v>3.998756408691406</v>
+        <v>3.649473190307617</v>
       </c>
       <c r="O47">
-        <v>18.00084114074707</v>
+        <v>18.76091957092285</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -7316,13 +7316,13 @@
         <v>4</v>
       </c>
       <c r="M48">
-        <v>13.99946212768555</v>
+        <v>16.01266860961914</v>
       </c>
       <c r="N48">
-        <v>9.024858474731445</v>
+        <v>13.5190486907959</v>
       </c>
       <c r="O48">
-        <v>23.02432060241699</v>
+        <v>29.53171730041504</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -7363,13 +7363,13 @@
         <v>4</v>
       </c>
       <c r="M49">
-        <v>13.99946212768555</v>
+        <v>16.01266860961914</v>
       </c>
       <c r="N49">
-        <v>9.024858474731445</v>
+        <v>13.5190486907959</v>
       </c>
       <c r="O49">
-        <v>23.02432060241699</v>
+        <v>29.53171730041504</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -7410,13 +7410,13 @@
         <v>4</v>
       </c>
       <c r="M50">
-        <v>13.99946212768555</v>
+        <v>16.01266860961914</v>
       </c>
       <c r="N50">
-        <v>9.024858474731445</v>
+        <v>13.5190486907959</v>
       </c>
       <c r="O50">
-        <v>23.02432060241699</v>
+        <v>29.53171730041504</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -7457,13 +7457,13 @@
         <v>4</v>
       </c>
       <c r="M51">
-        <v>13.99946212768555</v>
+        <v>16.01266860961914</v>
       </c>
       <c r="N51">
-        <v>9.024858474731445</v>
+        <v>13.5190486907959</v>
       </c>
       <c r="O51">
-        <v>23.02432060241699</v>
+        <v>29.53171730041504</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -7504,13 +7504,13 @@
         <v>4</v>
       </c>
       <c r="M52">
-        <v>12.99858093261719</v>
+        <v>17.00186729431152</v>
       </c>
       <c r="N52">
-        <v>12.9997730255127</v>
+        <v>9.996414184570312</v>
       </c>
       <c r="O52">
-        <v>25.99835395812988</v>
+        <v>26.99828147888184</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -7551,13 +7551,13 @@
         <v>4</v>
       </c>
       <c r="M53">
-        <v>12.99858093261719</v>
+        <v>17.00186729431152</v>
       </c>
       <c r="N53">
-        <v>12.9997730255127</v>
+        <v>9.996414184570312</v>
       </c>
       <c r="O53">
-        <v>25.99835395812988</v>
+        <v>26.99828147888184</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -7598,13 +7598,13 @@
         <v>4</v>
       </c>
       <c r="M54">
-        <v>12.99858093261719</v>
+        <v>17.00186729431152</v>
       </c>
       <c r="N54">
-        <v>12.9997730255127</v>
+        <v>9.996414184570312</v>
       </c>
       <c r="O54">
-        <v>25.99835395812988</v>
+        <v>26.99828147888184</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -7645,13 +7645,13 @@
         <v>4</v>
       </c>
       <c r="M55">
-        <v>12.99858093261719</v>
+        <v>17.00186729431152</v>
       </c>
       <c r="N55">
-        <v>12.9997730255127</v>
+        <v>9.996414184570312</v>
       </c>
       <c r="O55">
-        <v>25.99835395812988</v>
+        <v>26.99828147888184</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -7692,13 +7692,13 @@
         <v>4</v>
       </c>
       <c r="M56">
-        <v>16.08777046203613</v>
+        <v>17.64917373657227</v>
       </c>
       <c r="N56">
-        <v>11.99984550476074</v>
+        <v>16.42799377441406</v>
       </c>
       <c r="O56">
-        <v>28.08761596679688</v>
+        <v>34.07716751098633</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -7739,13 +7739,13 @@
         <v>4</v>
       </c>
       <c r="M57">
-        <v>16.08777046203613</v>
+        <v>17.64917373657227</v>
       </c>
       <c r="N57">
-        <v>11.99984550476074</v>
+        <v>16.42799377441406</v>
       </c>
       <c r="O57">
-        <v>28.08761596679688</v>
+        <v>34.07716751098633</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -7786,13 +7786,13 @@
         <v>4</v>
       </c>
       <c r="M58">
-        <v>16.08777046203613</v>
+        <v>17.64917373657227</v>
       </c>
       <c r="N58">
-        <v>11.99984550476074</v>
+        <v>16.42799377441406</v>
       </c>
       <c r="O58">
-        <v>28.08761596679688</v>
+        <v>34.07716751098633</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -7833,13 +7833,13 @@
         <v>4</v>
       </c>
       <c r="M59">
-        <v>16.08777046203613</v>
+        <v>17.64917373657227</v>
       </c>
       <c r="N59">
-        <v>11.99984550476074</v>
+        <v>16.42799377441406</v>
       </c>
       <c r="O59">
-        <v>28.08761596679688</v>
+        <v>34.07716751098633</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -7880,13 +7880,13 @@
         <v>2</v>
       </c>
       <c r="M60">
-        <v>12.06183433532715</v>
+        <v>12.65645027160645</v>
       </c>
       <c r="N60">
-        <v>10.87522506713867</v>
+        <v>11.97957992553711</v>
       </c>
       <c r="O60">
-        <v>22.93705940246582</v>
+        <v>24.63603019714355</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -7930,10 +7930,10 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>217.4656391143799</v>
+        <v>242.5196170806885</v>
       </c>
       <c r="O61">
-        <v>217.4656391143799</v>
+        <v>242.5196170806885</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -7977,10 +7977,10 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>217.4656391143799</v>
+        <v>242.5196170806885</v>
       </c>
       <c r="O62">
-        <v>217.4656391143799</v>
+        <v>242.5196170806885</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -8021,13 +8021,13 @@
         <v>4</v>
       </c>
       <c r="M63">
-        <v>11.34133338928223</v>
+        <v>11.00468635559082</v>
       </c>
       <c r="N63">
         <v>1.999855041503906</v>
       </c>
       <c r="O63">
-        <v>13.34118843078613</v>
+        <v>13.00454139709473</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -8068,13 +8068,13 @@
         <v>4</v>
       </c>
       <c r="M64">
-        <v>11.34133338928223</v>
+        <v>11.00468635559082</v>
       </c>
       <c r="N64">
         <v>1.999855041503906</v>
       </c>
       <c r="O64">
-        <v>13.34118843078613</v>
+        <v>13.00454139709473</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -8115,13 +8115,13 @@
         <v>4</v>
       </c>
       <c r="M65">
-        <v>11.34133338928223</v>
+        <v>11.00468635559082</v>
       </c>
       <c r="N65">
         <v>1.999855041503906</v>
       </c>
       <c r="O65">
-        <v>13.34118843078613</v>
+        <v>13.00454139709473</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -8162,13 +8162,13 @@
         <v>4</v>
       </c>
       <c r="M66">
-        <v>11.34133338928223</v>
+        <v>11.00468635559082</v>
       </c>
       <c r="N66">
         <v>1.999855041503906</v>
       </c>
       <c r="O66">
-        <v>13.34118843078613</v>
+        <v>13.00454139709473</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -8209,13 +8209,13 @@
         <v>4</v>
       </c>
       <c r="M67">
-        <v>10.45560836791992</v>
+        <v>11.4448070526123</v>
       </c>
       <c r="N67">
-        <v>6.779670715332031</v>
+        <v>8.304595947265625</v>
       </c>
       <c r="O67">
-        <v>17.23527908325195</v>
+        <v>19.74940299987793</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -8256,13 +8256,13 @@
         <v>4</v>
       </c>
       <c r="M68">
-        <v>10.45560836791992</v>
+        <v>11.4448070526123</v>
       </c>
       <c r="N68">
-        <v>6.779670715332031</v>
+        <v>8.304595947265625</v>
       </c>
       <c r="O68">
-        <v>17.23527908325195</v>
+        <v>19.74940299987793</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -8303,13 +8303,13 @@
         <v>4</v>
       </c>
       <c r="M69">
-        <v>10.45560836791992</v>
+        <v>11.4448070526123</v>
       </c>
       <c r="N69">
-        <v>6.779670715332031</v>
+        <v>8.304595947265625</v>
       </c>
       <c r="O69">
-        <v>17.23527908325195</v>
+        <v>19.74940299987793</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -8350,13 +8350,13 @@
         <v>4</v>
       </c>
       <c r="M70">
-        <v>10.45560836791992</v>
+        <v>11.4448070526123</v>
       </c>
       <c r="N70">
-        <v>6.779670715332031</v>
+        <v>8.304595947265625</v>
       </c>
       <c r="O70">
-        <v>17.23527908325195</v>
+        <v>19.74940299987793</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -8397,13 +8397,13 @@
         <v>4</v>
       </c>
       <c r="M71">
-        <v>17.00186729431152</v>
+        <v>23.37169647216797</v>
       </c>
       <c r="N71">
-        <v>29.51884269714355</v>
+        <v>39.03961181640625</v>
       </c>
       <c r="O71">
-        <v>46.52070999145508</v>
+        <v>62.41130828857422</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -8444,13 +8444,13 @@
         <v>4</v>
       </c>
       <c r="M72">
-        <v>17.00186729431152</v>
+        <v>23.37169647216797</v>
       </c>
       <c r="N72">
-        <v>29.51884269714355</v>
+        <v>39.03961181640625</v>
       </c>
       <c r="O72">
-        <v>46.52070999145508</v>
+        <v>62.41130828857422</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -8491,13 +8491,13 @@
         <v>4</v>
       </c>
       <c r="M73">
-        <v>17.00186729431152</v>
+        <v>23.37169647216797</v>
       </c>
       <c r="N73">
-        <v>29.51884269714355</v>
+        <v>39.03961181640625</v>
       </c>
       <c r="O73">
-        <v>46.52070999145508</v>
+        <v>62.41130828857422</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -8538,13 +8538,13 @@
         <v>4</v>
       </c>
       <c r="M74">
-        <v>17.00186729431152</v>
+        <v>23.37169647216797</v>
       </c>
       <c r="N74">
-        <v>29.51884269714355</v>
+        <v>39.03961181640625</v>
       </c>
       <c r="O74">
-        <v>46.52070999145508</v>
+        <v>62.41130828857422</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -8585,13 +8585,13 @@
         <v>4</v>
       </c>
       <c r="M75">
-        <v>11.96479797363281</v>
+        <v>13.00406455993652</v>
       </c>
       <c r="N75">
-        <v>31.58187866210938</v>
+        <v>31.95381164550781</v>
       </c>
       <c r="O75">
-        <v>43.54667663574219</v>
+        <v>44.95787620544434</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -8632,13 +8632,13 @@
         <v>4</v>
       </c>
       <c r="M76">
-        <v>11.96479797363281</v>
+        <v>13.00406455993652</v>
       </c>
       <c r="N76">
-        <v>31.58187866210938</v>
+        <v>31.95381164550781</v>
       </c>
       <c r="O76">
-        <v>43.54667663574219</v>
+        <v>44.95787620544434</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -8679,13 +8679,13 @@
         <v>4</v>
       </c>
       <c r="M77">
-        <v>11.96479797363281</v>
+        <v>13.00406455993652</v>
       </c>
       <c r="N77">
-        <v>31.58187866210938</v>
+        <v>31.95381164550781</v>
       </c>
       <c r="O77">
-        <v>43.54667663574219</v>
+        <v>44.95787620544434</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -8726,13 +8726,13 @@
         <v>4</v>
       </c>
       <c r="M78">
-        <v>11.96479797363281</v>
+        <v>13.00406455993652</v>
       </c>
       <c r="N78">
-        <v>31.58187866210938</v>
+        <v>31.95381164550781</v>
       </c>
       <c r="O78">
-        <v>43.54667663574219</v>
+        <v>44.95787620544434</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -8773,13 +8773,13 @@
         <v>2</v>
       </c>
       <c r="M79">
-        <v>15.01965522766113</v>
+        <v>17.61603355407715</v>
       </c>
       <c r="N79">
-        <v>1.991033554077148</v>
+        <v>2.000570297241211</v>
       </c>
       <c r="O79">
-        <v>17.01068878173828</v>
+        <v>19.61660385131836</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -8820,13 +8820,13 @@
         <v>2</v>
       </c>
       <c r="M80">
-        <v>12.08853721618652</v>
+        <v>11.08837127685547</v>
       </c>
       <c r="N80">
-        <v>2.000331878662109</v>
+        <v>0.9968280792236328</v>
       </c>
       <c r="O80">
-        <v>14.08886909484863</v>
+        <v>12.0851993560791</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -8867,13 +8867,13 @@
         <v>2</v>
       </c>
       <c r="M81">
-        <v>11.1386775970459</v>
+        <v>10.41603088378906</v>
       </c>
       <c r="N81">
-        <v>4.999637603759766</v>
+        <v>5.99980354309082</v>
       </c>
       <c r="O81">
-        <v>16.13831520080566</v>
+        <v>16.41583442687988</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -8914,13 +8914,13 @@
         <v>4</v>
       </c>
       <c r="M82">
-        <v>14.00160789489746</v>
+        <v>20.15423774719238</v>
       </c>
       <c r="N82">
-        <v>30.22146224975586</v>
+        <v>35.97211837768555</v>
       </c>
       <c r="O82">
-        <v>44.22307014465332</v>
+        <v>56.12635612487793</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -8961,13 +8961,13 @@
         <v>4</v>
       </c>
       <c r="M83">
-        <v>14.00160789489746</v>
+        <v>20.15423774719238</v>
       </c>
       <c r="N83">
-        <v>30.22146224975586</v>
+        <v>35.97211837768555</v>
       </c>
       <c r="O83">
-        <v>44.22307014465332</v>
+        <v>56.12635612487793</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -9008,13 +9008,13 @@
         <v>4</v>
       </c>
       <c r="M84">
-        <v>14.00160789489746</v>
+        <v>20.15423774719238</v>
       </c>
       <c r="N84">
-        <v>30.22146224975586</v>
+        <v>35.97211837768555</v>
       </c>
       <c r="O84">
-        <v>44.22307014465332</v>
+        <v>56.12635612487793</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -9055,13 +9055,13 @@
         <v>4</v>
       </c>
       <c r="M85">
-        <v>14.00160789489746</v>
+        <v>20.15423774719238</v>
       </c>
       <c r="N85">
-        <v>30.22146224975586</v>
+        <v>35.97211837768555</v>
       </c>
       <c r="O85">
-        <v>44.22307014465332</v>
+        <v>56.12635612487793</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -9102,13 +9102,13 @@
         <v>4</v>
       </c>
       <c r="M86">
-        <v>12.78042793273926</v>
+        <v>12.06541061401367</v>
       </c>
       <c r="N86">
-        <v>31.99100494384766</v>
+        <v>29.2811393737793</v>
       </c>
       <c r="O86">
-        <v>44.77143287658691</v>
+        <v>41.34654998779297</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -9149,13 +9149,13 @@
         <v>4</v>
       </c>
       <c r="M87">
-        <v>12.78042793273926</v>
+        <v>12.06541061401367</v>
       </c>
       <c r="N87">
-        <v>31.99100494384766</v>
+        <v>29.2811393737793</v>
       </c>
       <c r="O87">
-        <v>44.77143287658691</v>
+        <v>41.34654998779297</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -9196,13 +9196,13 @@
         <v>4</v>
       </c>
       <c r="M88">
-        <v>12.78042793273926</v>
+        <v>12.06541061401367</v>
       </c>
       <c r="N88">
-        <v>31.99100494384766</v>
+        <v>29.2811393737793</v>
       </c>
       <c r="O88">
-        <v>44.77143287658691</v>
+        <v>41.34654998779297</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -9243,13 +9243,13 @@
         <v>4</v>
       </c>
       <c r="M89">
-        <v>12.78042793273926</v>
+        <v>12.06541061401367</v>
       </c>
       <c r="N89">
-        <v>31.99100494384766</v>
+        <v>29.2811393737793</v>
       </c>
       <c r="O89">
-        <v>44.77143287658691</v>
+        <v>41.34654998779297</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -9290,13 +9290,13 @@
         <v>1</v>
       </c>
       <c r="M90">
-        <v>15.14077186584473</v>
+        <v>20.43056488037109</v>
       </c>
       <c r="N90">
-        <v>1.008033752441406</v>
+        <v>0.9822845458984375</v>
       </c>
       <c r="O90">
-        <v>16.14880561828613</v>
+        <v>21.41284942626953</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -9337,13 +9337,13 @@
         <v>2</v>
       </c>
       <c r="M91">
-        <v>11.97075843811035</v>
+        <v>16.9978141784668</v>
       </c>
       <c r="N91">
-        <v>3.000974655151367</v>
+        <v>3.000736236572266</v>
       </c>
       <c r="O91">
-        <v>14.97173309326172</v>
+        <v>19.99855041503906</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -9387,10 +9387,10 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>40.8012866973877</v>
+        <v>38.63525390625</v>
       </c>
       <c r="O92">
-        <v>40.8012866973877</v>
+        <v>38.63525390625</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -9431,13 +9431,13 @@
         <v>2</v>
       </c>
       <c r="M93">
-        <v>12.63666152954102</v>
+        <v>11.0020637512207</v>
       </c>
       <c r="N93">
-        <v>6.856203079223633</v>
+        <v>5.979537963867188</v>
       </c>
       <c r="O93">
-        <v>19.49286460876465</v>
+        <v>16.98160171508789</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -9478,13 +9478,13 @@
         <v>2</v>
       </c>
       <c r="M94">
-        <v>11.55662536621094</v>
+        <v>13.5796070098877</v>
       </c>
       <c r="N94">
-        <v>7.999181747436523</v>
+        <v>12.07900047302246</v>
       </c>
       <c r="O94">
-        <v>19.55580711364746</v>
+        <v>25.65860748291016</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -9525,13 +9525,13 @@
         <v>1</v>
       </c>
       <c r="M95">
-        <v>13.07964324951172</v>
+        <v>13.04149627685547</v>
       </c>
       <c r="N95">
-        <v>0.9970664978027344</v>
+        <v>0</v>
       </c>
       <c r="O95">
-        <v>14.07670974731445</v>
+        <v>13.04149627685547</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -9572,13 +9572,13 @@
         <v>2</v>
       </c>
       <c r="M96">
-        <v>11.1696720123291</v>
+        <v>10.99920272827148</v>
       </c>
       <c r="N96">
-        <v>1.001358032226562</v>
+        <v>2.004861831665039</v>
       </c>
       <c r="O96">
-        <v>12.17103004455566</v>
+        <v>13.00406455993652</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -9619,13 +9619,13 @@
         <v>2</v>
       </c>
       <c r="M97">
-        <v>10.36858558654785</v>
+        <v>13.25345039367676</v>
       </c>
       <c r="N97">
-        <v>1.999855041503906</v>
+        <v>2.001762390136719</v>
       </c>
       <c r="O97">
-        <v>12.36844062805176</v>
+        <v>15.25521278381348</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -9669,10 +9669,10 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>45.88627815246582</v>
+        <v>51.50389671325684</v>
       </c>
       <c r="O98">
-        <v>45.88627815246582</v>
+        <v>51.50389671325684</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -9713,13 +9713,13 @@
         <v>2</v>
       </c>
       <c r="M99">
-        <v>11.00540161132812</v>
+        <v>11.99722290039062</v>
       </c>
       <c r="N99">
-        <v>7.02977180480957</v>
+        <v>7.1258544921875</v>
       </c>
       <c r="O99">
-        <v>18.0351734161377</v>
+        <v>19.12307739257812</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -9760,13 +9760,13 @@
         <v>2</v>
       </c>
       <c r="M100">
-        <v>12.00079917907715</v>
+        <v>16.00050926208496</v>
       </c>
       <c r="N100">
-        <v>7.000446319580078</v>
+        <v>11.0020637512207</v>
       </c>
       <c r="O100">
-        <v>19.00124549865723</v>
+        <v>27.00257301330566</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -9807,13 +9807,13 @@
         <v>2</v>
       </c>
       <c r="M101">
-        <v>13.61203193664551</v>
+        <v>14.66655731201172</v>
       </c>
       <c r="N101">
-        <v>10.00022888183594</v>
+        <v>8.934736251831055</v>
       </c>
       <c r="O101">
-        <v>23.61226081848145</v>
+        <v>23.60129356384277</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -9854,13 +9854,13 @@
         <v>3</v>
       </c>
       <c r="M102">
-        <v>12.05253601074219</v>
+        <v>13.25368881225586</v>
       </c>
       <c r="N102">
-        <v>25.75850486755371</v>
+        <v>28.89132499694824</v>
       </c>
       <c r="O102">
-        <v>37.8110408782959</v>
+        <v>42.1450138092041</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -9901,13 +9901,13 @@
         <v>3</v>
       </c>
       <c r="M103">
-        <v>12.05253601074219</v>
+        <v>13.25368881225586</v>
       </c>
       <c r="N103">
-        <v>25.75850486755371</v>
+        <v>28.89132499694824</v>
       </c>
       <c r="O103">
-        <v>37.8110408782959</v>
+        <v>42.1450138092041</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -9948,13 +9948,13 @@
         <v>3</v>
       </c>
       <c r="M104">
-        <v>12.05253601074219</v>
+        <v>13.25368881225586</v>
       </c>
       <c r="N104">
-        <v>25.75850486755371</v>
+        <v>28.89132499694824</v>
       </c>
       <c r="O104">
-        <v>37.8110408782959</v>
+        <v>42.1450138092041</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -9995,13 +9995,13 @@
         <v>3</v>
       </c>
       <c r="M105">
-        <v>12.23611831665039</v>
+        <v>17.77172088623047</v>
       </c>
       <c r="N105">
-        <v>3.999710083007812</v>
+        <v>4.99725341796875</v>
       </c>
       <c r="O105">
-        <v>16.2358283996582</v>
+        <v>22.76897430419922</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -10042,13 +10042,13 @@
         <v>3</v>
       </c>
       <c r="M106">
-        <v>12.23611831665039</v>
+        <v>17.77172088623047</v>
       </c>
       <c r="N106">
-        <v>3.999710083007812</v>
+        <v>4.99725341796875</v>
       </c>
       <c r="O106">
-        <v>16.2358283996582</v>
+        <v>22.76897430419922</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -10089,13 +10089,13 @@
         <v>3</v>
       </c>
       <c r="M107">
-        <v>12.23611831665039</v>
+        <v>17.77172088623047</v>
       </c>
       <c r="N107">
-        <v>3.999710083007812</v>
+        <v>4.99725341796875</v>
       </c>
       <c r="O107">
-        <v>16.2358283996582</v>
+        <v>22.76897430419922</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -10136,13 +10136,13 @@
         <v>3</v>
       </c>
       <c r="M108">
-        <v>14.00566101074219</v>
+        <v>17.14754104614258</v>
       </c>
       <c r="N108">
-        <v>5.994558334350586</v>
+        <v>9.001731872558594</v>
       </c>
       <c r="O108">
-        <v>20.00021934509277</v>
+        <v>26.14927291870117</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -10183,13 +10183,13 @@
         <v>3</v>
       </c>
       <c r="M109">
-        <v>14.00566101074219</v>
+        <v>17.14754104614258</v>
       </c>
       <c r="N109">
-        <v>5.994558334350586</v>
+        <v>9.001731872558594</v>
       </c>
       <c r="O109">
-        <v>20.00021934509277</v>
+        <v>26.14927291870117</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -10230,13 +10230,13 @@
         <v>3</v>
       </c>
       <c r="M110">
-        <v>14.00566101074219</v>
+        <v>17.14754104614258</v>
       </c>
       <c r="N110">
-        <v>5.994558334350586</v>
+        <v>9.001731872558594</v>
       </c>
       <c r="O110">
-        <v>20.00021934509277</v>
+        <v>26.14927291870117</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -10277,13 +10277,13 @@
         <v>3</v>
       </c>
       <c r="M111">
-        <v>14.00089263916016</v>
+        <v>16.99948310852051</v>
       </c>
       <c r="N111">
-        <v>9.004116058349609</v>
+        <v>11.00015640258789</v>
       </c>
       <c r="O111">
-        <v>23.00500869750977</v>
+        <v>27.9996395111084</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -10324,13 +10324,13 @@
         <v>3</v>
       </c>
       <c r="M112">
-        <v>14.00089263916016</v>
+        <v>16.99948310852051</v>
       </c>
       <c r="N112">
-        <v>9.004116058349609</v>
+        <v>11.00015640258789</v>
       </c>
       <c r="O112">
-        <v>23.00500869750977</v>
+        <v>27.9996395111084</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -10371,13 +10371,13 @@
         <v>3</v>
       </c>
       <c r="M113">
-        <v>14.00089263916016</v>
+        <v>16.99948310852051</v>
       </c>
       <c r="N113">
-        <v>9.004116058349609</v>
+        <v>11.00015640258789</v>
       </c>
       <c r="O113">
-        <v>23.00500869750977</v>
+        <v>27.9996395111084</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -10418,13 +10418,13 @@
         <v>3</v>
       </c>
       <c r="M114">
-        <v>13.1833553314209</v>
+        <v>19.83928680419922</v>
       </c>
       <c r="N114">
-        <v>9.999513626098633</v>
+        <v>14.81413841247559</v>
       </c>
       <c r="O114">
-        <v>23.18286895751953</v>
+        <v>34.6534252166748</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -10465,13 +10465,13 @@
         <v>3</v>
       </c>
       <c r="M115">
-        <v>13.1833553314209</v>
+        <v>19.83928680419922</v>
       </c>
       <c r="N115">
-        <v>9.999513626098633</v>
+        <v>14.81413841247559</v>
       </c>
       <c r="O115">
-        <v>23.18286895751953</v>
+        <v>34.6534252166748</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -10512,13 +10512,13 @@
         <v>3</v>
       </c>
       <c r="M116">
-        <v>13.1833553314209</v>
+        <v>19.83928680419922</v>
       </c>
       <c r="N116">
-        <v>9.999513626098633</v>
+        <v>14.81413841247559</v>
       </c>
       <c r="O116">
-        <v>23.18286895751953</v>
+        <v>34.6534252166748</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -10562,10 +10562,10 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>159.9142551422119</v>
+        <v>167.8519248962402</v>
       </c>
       <c r="O117">
-        <v>159.9142551422119</v>
+        <v>167.8519248962402</v>
       </c>
     </row>
     <row r="118" spans="1:15">
@@ -10606,13 +10606,13 @@
         <v>2</v>
       </c>
       <c r="M118">
-        <v>13.99612426757812</v>
+        <v>16.45207405090332</v>
       </c>
       <c r="N118">
-        <v>0.9987354278564453</v>
+        <v>3.000259399414062</v>
       </c>
       <c r="O118">
-        <v>14.99485969543457</v>
+        <v>19.45233345031738</v>
       </c>
     </row>
     <row r="119" spans="1:15">
@@ -10656,10 +10656,10 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <v>204.5176029205322</v>
+        <v>229.7940254211426</v>
       </c>
       <c r="O119">
-        <v>204.5176029205322</v>
+        <v>229.7940254211426</v>
       </c>
     </row>
     <row r="120" spans="1:15">
@@ -10703,10 +10703,10 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <v>204.5176029205322</v>
+        <v>229.7940254211426</v>
       </c>
       <c r="O120">
-        <v>204.5176029205322</v>
+        <v>229.7940254211426</v>
       </c>
     </row>
     <row r="121" spans="1:15">
@@ -10750,10 +10750,10 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <v>204.5176029205322</v>
+        <v>229.7940254211426</v>
       </c>
       <c r="O121">
-        <v>204.5176029205322</v>
+        <v>229.7940254211426</v>
       </c>
     </row>
     <row r="122" spans="1:15">
@@ -10797,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <v>204.5176029205322</v>
+        <v>229.7940254211426</v>
       </c>
       <c r="O122">
-        <v>204.5176029205322</v>
+        <v>229.7940254211426</v>
       </c>
     </row>
     <row r="123" spans="1:15">
@@ -10844,10 +10844,10 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <v>204.5176029205322</v>
+        <v>229.7940254211426</v>
       </c>
       <c r="O123">
-        <v>204.5176029205322</v>
+        <v>229.7940254211426</v>
       </c>
     </row>
     <row r="124" spans="1:15">
@@ -10891,10 +10891,10 @@
         <v>0</v>
       </c>
       <c r="N124">
-        <v>204.5176029205322</v>
+        <v>229.7940254211426</v>
       </c>
       <c r="O124">
-        <v>204.5176029205322</v>
+        <v>229.7940254211426</v>
       </c>
     </row>
     <row r="125" spans="1:15">
@@ -10938,10 +10938,10 @@
         <v>0</v>
       </c>
       <c r="N125">
-        <v>204.5176029205322</v>
+        <v>229.7940254211426</v>
       </c>
       <c r="O125">
-        <v>204.5176029205322</v>
+        <v>229.7940254211426</v>
       </c>
     </row>
     <row r="126" spans="1:15">
@@ -10985,10 +10985,10 @@
         <v>0</v>
       </c>
       <c r="N126">
-        <v>204.5176029205322</v>
+        <v>229.7940254211426</v>
       </c>
       <c r="O126">
-        <v>204.5176029205322</v>
+        <v>229.7940254211426</v>
       </c>
     </row>
     <row r="127" spans="1:15">
@@ -11032,10 +11032,10 @@
         <v>0</v>
       </c>
       <c r="N127">
-        <v>204.5176029205322</v>
+        <v>229.7940254211426</v>
       </c>
       <c r="O127">
-        <v>204.5176029205322</v>
+        <v>229.7940254211426</v>
       </c>
     </row>
     <row r="128" spans="1:15">
@@ -11079,10 +11079,10 @@
         <v>0</v>
       </c>
       <c r="N128">
-        <v>204.5176029205322</v>
+        <v>229.7940254211426</v>
       </c>
       <c r="O128">
-        <v>204.5176029205322</v>
+        <v>229.7940254211426</v>
       </c>
     </row>
     <row r="129" spans="1:15">
@@ -11123,13 +11123,13 @@
         <v>2</v>
       </c>
       <c r="M129">
-        <v>14.00089263916016</v>
+        <v>11.51227951049805</v>
       </c>
       <c r="N129">
-        <v>0.9987354278564453</v>
+        <v>1.997947692871094</v>
       </c>
       <c r="O129">
-        <v>14.9996280670166</v>
+        <v>13.51022720336914</v>
       </c>
     </row>
     <row r="130" spans="1:15">
@@ -11170,13 +11170,13 @@
         <v>2</v>
       </c>
       <c r="M130">
-        <v>12.01224327087402</v>
+        <v>9.981870651245117</v>
       </c>
       <c r="N130">
-        <v>3.98564338684082</v>
+        <v>5.000114440917969</v>
       </c>
       <c r="O130">
-        <v>15.99788665771484</v>
+        <v>14.98198509216309</v>
       </c>
     </row>
     <row r="131" spans="1:15">
@@ -11217,13 +11217,13 @@
         <v>4</v>
       </c>
       <c r="M131">
-        <v>13.03434371948242</v>
+        <v>20.36142349243164</v>
       </c>
       <c r="N131">
-        <v>30.31539916992188</v>
+        <v>39.95704650878906</v>
       </c>
       <c r="O131">
-        <v>43.3497428894043</v>
+        <v>60.3184700012207</v>
       </c>
     </row>
     <row r="132" spans="1:15">
@@ -11264,13 +11264,13 @@
         <v>4</v>
       </c>
       <c r="M132">
-        <v>13.03434371948242</v>
+        <v>20.36142349243164</v>
       </c>
       <c r="N132">
-        <v>30.31539916992188</v>
+        <v>39.95704650878906</v>
       </c>
       <c r="O132">
-        <v>43.3497428894043</v>
+        <v>60.3184700012207</v>
       </c>
     </row>
     <row r="133" spans="1:15">
@@ -11311,13 +11311,13 @@
         <v>4</v>
       </c>
       <c r="M133">
-        <v>13.03434371948242</v>
+        <v>20.36142349243164</v>
       </c>
       <c r="N133">
-        <v>30.31539916992188</v>
+        <v>39.95704650878906</v>
       </c>
       <c r="O133">
-        <v>43.3497428894043</v>
+        <v>60.3184700012207</v>
       </c>
     </row>
     <row r="134" spans="1:15">
@@ -11358,13 +11358,13 @@
         <v>4</v>
       </c>
       <c r="M134">
-        <v>13.03434371948242</v>
+        <v>20.36142349243164</v>
       </c>
       <c r="N134">
-        <v>30.31539916992188</v>
+        <v>39.95704650878906</v>
       </c>
       <c r="O134">
-        <v>43.3497428894043</v>
+        <v>60.3184700012207</v>
       </c>
     </row>
     <row r="135" spans="1:15">
@@ -11405,13 +11405,13 @@
         <v>4</v>
       </c>
       <c r="M135">
-        <v>12.07113265991211</v>
+        <v>11.99865341186523</v>
       </c>
       <c r="N135">
-        <v>30.9607982635498</v>
+        <v>31.40521049499512</v>
       </c>
       <c r="O135">
-        <v>43.03193092346191</v>
+        <v>43.40386390686035</v>
       </c>
     </row>
     <row r="136" spans="1:15">
@@ -11452,13 +11452,13 @@
         <v>4</v>
       </c>
       <c r="M136">
-        <v>12.07113265991211</v>
+        <v>11.99865341186523</v>
       </c>
       <c r="N136">
-        <v>30.9607982635498</v>
+        <v>31.40521049499512</v>
       </c>
       <c r="O136">
-        <v>43.03193092346191</v>
+        <v>43.40386390686035</v>
       </c>
     </row>
     <row r="137" spans="1:15">
@@ -11499,13 +11499,13 @@
         <v>4</v>
       </c>
       <c r="M137">
-        <v>12.07113265991211</v>
+        <v>11.99865341186523</v>
       </c>
       <c r="N137">
-        <v>30.9607982635498</v>
+        <v>31.40521049499512</v>
       </c>
       <c r="O137">
-        <v>43.03193092346191</v>
+        <v>43.40386390686035</v>
       </c>
     </row>
     <row r="138" spans="1:15">
@@ -11546,13 +11546,13 @@
         <v>4</v>
       </c>
       <c r="M138">
-        <v>12.07113265991211</v>
+        <v>11.99865341186523</v>
       </c>
       <c r="N138">
-        <v>30.9607982635498</v>
+        <v>31.40521049499512</v>
       </c>
       <c r="O138">
-        <v>43.03193092346191</v>
+        <v>43.40386390686035</v>
       </c>
     </row>
     <row r="139" spans="1:15">
@@ -11593,13 +11593,13 @@
         <v>2</v>
       </c>
       <c r="M139">
-        <v>15.00201225280762</v>
+        <v>16.1597728729248</v>
       </c>
       <c r="N139">
-        <v>7.968902587890625</v>
+        <v>13.66043090820312</v>
       </c>
       <c r="O139">
-        <v>22.97091484069824</v>
+        <v>29.82020378112793</v>
       </c>
     </row>
     <row r="140" spans="1:15">
@@ -11640,13 +11640,13 @@
         <v>3</v>
       </c>
       <c r="M140">
-        <v>13.00454139709473</v>
+        <v>18.05424690246582</v>
       </c>
       <c r="N140">
-        <v>4.001140594482422</v>
+        <v>2.999305725097656</v>
       </c>
       <c r="O140">
-        <v>17.00568199157715</v>
+        <v>21.05355262756348</v>
       </c>
     </row>
     <row r="141" spans="1:15">
@@ -11687,13 +11687,13 @@
         <v>3</v>
       </c>
       <c r="M141">
-        <v>13.00454139709473</v>
+        <v>18.05424690246582</v>
       </c>
       <c r="N141">
-        <v>4.001140594482422</v>
+        <v>2.999305725097656</v>
       </c>
       <c r="O141">
-        <v>17.00568199157715</v>
+        <v>21.05355262756348</v>
       </c>
     </row>
     <row r="142" spans="1:15">
@@ -11734,13 +11734,13 @@
         <v>3</v>
       </c>
       <c r="M142">
-        <v>13.00454139709473</v>
+        <v>18.05424690246582</v>
       </c>
       <c r="N142">
-        <v>4.001140594482422</v>
+        <v>2.999305725097656</v>
       </c>
       <c r="O142">
-        <v>17.00568199157715</v>
+        <v>21.05355262756348</v>
       </c>
     </row>
     <row r="143" spans="1:15">
@@ -11784,10 +11784,10 @@
         <v>0</v>
       </c>
       <c r="N143">
-        <v>41.83173179626465</v>
+        <v>44.44432258605957</v>
       </c>
       <c r="O143">
-        <v>41.83173179626465</v>
+        <v>44.44432258605957</v>
       </c>
     </row>
     <row r="144" spans="1:15">
@@ -11828,13 +11828,13 @@
         <v>3</v>
       </c>
       <c r="M144">
-        <v>11.00492477416992</v>
+        <v>11.04593276977539</v>
       </c>
       <c r="N144">
-        <v>9.723663330078125</v>
+        <v>8.978128433227539</v>
       </c>
       <c r="O144">
-        <v>20.72858810424805</v>
+        <v>20.02406120300293</v>
       </c>
     </row>
     <row r="145" spans="1:15">
@@ -11875,13 +11875,13 @@
         <v>3</v>
       </c>
       <c r="M145">
-        <v>11.00492477416992</v>
+        <v>11.04593276977539</v>
       </c>
       <c r="N145">
-        <v>9.723663330078125</v>
+        <v>8.978128433227539</v>
       </c>
       <c r="O145">
-        <v>20.72858810424805</v>
+        <v>20.02406120300293</v>
       </c>
     </row>
     <row r="146" spans="1:15">
@@ -11922,13 +11922,13 @@
         <v>3</v>
       </c>
       <c r="M146">
-        <v>11.00492477416992</v>
+        <v>11.04593276977539</v>
       </c>
       <c r="N146">
-        <v>9.723663330078125</v>
+        <v>8.978128433227539</v>
       </c>
       <c r="O146">
-        <v>20.72858810424805</v>
+        <v>20.02406120300293</v>
       </c>
     </row>
     <row r="147" spans="1:15">
@@ -11969,13 +11969,13 @@
         <v>3</v>
       </c>
       <c r="M147">
-        <v>11.89923286437988</v>
+        <v>17.77553558349609</v>
       </c>
       <c r="N147">
-        <v>11.75498962402344</v>
+        <v>16.33977890014648</v>
       </c>
       <c r="O147">
-        <v>23.65422248840332</v>
+        <v>34.11531448364258</v>
       </c>
     </row>
     <row r="148" spans="1:15">
@@ -12016,13 +12016,13 @@
         <v>3</v>
       </c>
       <c r="M148">
-        <v>11.89923286437988</v>
+        <v>17.77553558349609</v>
       </c>
       <c r="N148">
-        <v>11.75498962402344</v>
+        <v>16.33977890014648</v>
       </c>
       <c r="O148">
-        <v>23.65422248840332</v>
+        <v>34.11531448364258</v>
       </c>
     </row>
     <row r="149" spans="1:15">
@@ -12063,13 +12063,13 @@
         <v>3</v>
       </c>
       <c r="M149">
-        <v>11.89923286437988</v>
+        <v>17.77553558349609</v>
       </c>
       <c r="N149">
-        <v>11.75498962402344</v>
+        <v>16.33977890014648</v>
       </c>
       <c r="O149">
-        <v>23.65422248840332</v>
+        <v>34.11531448364258</v>
       </c>
     </row>
     <row r="150" spans="1:15">
@@ -12110,13 +12110,13 @@
         <v>2</v>
       </c>
       <c r="M150">
-        <v>16.96991920471191</v>
+        <v>12.02964782714844</v>
       </c>
       <c r="N150">
-        <v>4.999399185180664</v>
+        <v>2.969741821289062</v>
       </c>
       <c r="O150">
-        <v>21.96931838989258</v>
+        <v>14.9993896484375</v>
       </c>
     </row>
     <row r="151" spans="1:15">
@@ -12157,13 +12157,13 @@
         <v>2</v>
       </c>
       <c r="M151">
-        <v>12.26019859313965</v>
+        <v>12.30955123901367</v>
       </c>
       <c r="N151">
-        <v>13.0620002746582</v>
+        <v>19.84786987304688</v>
       </c>
       <c r="O151">
-        <v>25.32219886779785</v>
+        <v>32.15742111206055</v>
       </c>
     </row>
   </sheetData>
@@ -12213,7 +12213,7 @@
         <v>0.36</v>
       </c>
       <c r="E2">
-        <v>94.4704008102417</v>
+        <v>103.3859205245972</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12230,7 +12230,7 @@
         <v>2.64</v>
       </c>
       <c r="E3">
-        <v>24.12674427032471</v>
+        <v>28.02118301391602</v>
       </c>
     </row>
   </sheetData>
